--- a/RTR route schedule.xlsx
+++ b/RTR route schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulcox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC50BA8-15F6-2240-B8B1-73CE22D8F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5411ACA2-784B-6F4B-810D-DD4A97091109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schedule!$A$1:$M$78</definedName>
-    <definedName name="Z_4834604E_8AB4_4512_8966_A2E345F1CB23_.wvu.FilterData" localSheetId="0" hidden="1">schedule!$A$1:$M$78</definedName>
-    <definedName name="Z_A3DE8802_0C4D_4111_B18C_B1D760A0D2A9_.wvu.FilterData" localSheetId="0" hidden="1">schedule!$A$1:$M$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">schedule!$A$1:$N$78</definedName>
+    <definedName name="Z_4834604E_8AB4_4512_8966_A2E345F1CB23_.wvu.FilterData" localSheetId="0" hidden="1">schedule!$A$1:$N$78</definedName>
+    <definedName name="Z_A3DE8802_0C4D_4111_B18C_B1D760A0D2A9_.wvu.FilterData" localSheetId="0" hidden="1">schedule!$A$1:$N$78</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
@@ -34,7 +34,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H45" authorId="0" shapeId="0" xr:uid="{3A05A863-FDBC-AF42-B2D7-440001EA7A11}">
+    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{3A05A863-FDBC-AF42-B2D7-440001EA7A11}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="140">
   <si>
     <t>Week</t>
   </si>
@@ -460,6 +460,21 @@
   </si>
   <si>
     <t>https://maps.app.goo.gl/YVNNrnMeopAXEepR8</t>
+  </si>
+  <si>
+    <t>Meeting point google link</t>
+  </si>
+  <si>
+    <t>Red Rock Lane</t>
+  </si>
+  <si>
+    <t>Ainsworth</t>
+  </si>
+  <si>
+    <t>Manchester Road Car Park</t>
+  </si>
+  <si>
+    <t>Burrs County Park</t>
   </si>
 </sst>
 </file>
@@ -615,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -913,11 +928,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1068,13 +1096,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1204,21 +1263,21 @@
   </dxfs>
   <tableStyles count="4">
     <tableStyle name="schedule-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
     <tableStyle name="Sheet2-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
     <tableStyle name="Sheet2-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Walks-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1233,16 +1292,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Annual_Schedule" displayName="Annual_Schedule" ref="A1:M78">
-  <autoFilter ref="A1:M78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Annual_Schedule" displayName="Annual_Schedule" ref="A1:N78">
+  <autoFilter ref="A1:N78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Week"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2024 Date"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2025 Date"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2026 Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Special events"/>
-    <tableColumn id="11" xr3:uid="{7961C66F-7F71-5E46-BD51-30F15C1D1DEA}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{15A630A7-28D6-F846-BFFC-A40F859AB0E8}" name="Meeting point" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{7961C66F-7F71-5E46-BD51-30F15C1D1DEA}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{15A630A7-28D6-F846-BFFC-A40F859AB0E8}" name="Meeting point" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{0E7F993B-E3B6-A646-981B-F271DFE1B833}" name="Meeting point google link" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="8k Route"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="8k Strava link"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="5k Route"/>
@@ -1455,11 +1515,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1470,15 +1530,16 @@
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="24.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" customWidth="1"/>
-    <col min="9" max="9" width="43.83203125" customWidth="1"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="43.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" customWidth="1"/>
+    <col min="10" max="10" width="43.83203125" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="43.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,25 +1562,28 @@
         <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>27</v>
       </c>
@@ -1534,25 +1598,28 @@
       <c r="F2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>28</v>
       </c>
@@ -1570,22 +1637,23 @@
       <c r="G3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M3" s="13"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>29</v>
       </c>
@@ -1601,22 +1669,23 @@
       <c r="G4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="L4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M4" s="6"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>30</v>
       </c>
@@ -1632,22 +1701,23 @@
       <c r="G5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="J5" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="L5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M5" s="13"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>31</v>
       </c>
@@ -1662,25 +1732,28 @@
       <c r="F6" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="L6" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M6" s="6"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>32</v>
       </c>
@@ -1698,22 +1771,23 @@
       <c r="G7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="J7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="L7" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M7" s="13"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>33</v>
       </c>
@@ -1729,22 +1803,23 @@
       <c r="G8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="J8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="L8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M8" s="6"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>34</v>
       </c>
@@ -1762,22 +1837,23 @@
       <c r="G9" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="J9" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="L9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M9" s="13"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>35</v>
       </c>
@@ -1793,14 +1869,15 @@
         <v>130</v>
       </c>
       <c r="G10" s="8"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H10" s="52"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>36</v>
       </c>
@@ -1818,22 +1895,23 @@
       <c r="G11" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="L11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M11" s="13"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>37</v>
       </c>
@@ -1853,22 +1931,23 @@
       <c r="G12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="52"/>
+      <c r="I12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="J12" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="K12" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="L12" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M12" s="23"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>38</v>
       </c>
@@ -1888,22 +1967,23 @@
       <c r="G13" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="52"/>
+      <c r="I13" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="J13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="L13" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M13" s="13"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>39</v>
       </c>
@@ -1923,22 +2003,23 @@
       <c r="G14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="J14" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M14" s="6"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="12">
         <v>40</v>
       </c>
@@ -1956,22 +2037,23 @@
       <c r="G15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="52"/>
+      <c r="I15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="J15" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="L15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M15" s="13"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>41</v>
       </c>
@@ -1989,22 +2071,23 @@
       <c r="G16" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="J16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M16" s="6"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>42</v>
       </c>
@@ -2022,22 +2105,23 @@
       <c r="G17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="52"/>
+      <c r="I17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="J17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="L17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M17" s="13"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>43</v>
       </c>
@@ -2055,22 +2139,23 @@
       <c r="G18" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="L18" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M18" s="6"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="12">
         <v>44</v>
       </c>
@@ -2088,22 +2173,23 @@
       <c r="G19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="52"/>
+      <c r="I19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="K19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M19" s="13"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>45</v>
       </c>
@@ -2121,22 +2207,23 @@
       <c r="G20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="J20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M20" s="6"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="12">
         <v>46</v>
       </c>
@@ -2154,22 +2241,23 @@
       <c r="G21" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="52"/>
+      <c r="I21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="K21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="L21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M21" s="13"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>47</v>
       </c>
@@ -2187,22 +2275,23 @@
       <c r="G22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M22" s="6"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
         <v>48</v>
       </c>
@@ -2220,22 +2309,23 @@
       <c r="G23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="52"/>
+      <c r="I23" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="J23" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="K23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="L23" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M23" s="13"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>50</v>
       </c>
@@ -2253,22 +2343,23 @@
       <c r="G24" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="8"/>
+      <c r="I24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="J24" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="L24" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M24" s="6"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
         <v>50</v>
       </c>
@@ -2286,22 +2377,23 @@
       <c r="G25" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="52"/>
+      <c r="I25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="K25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="L25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M25" s="13"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>51</v>
       </c>
@@ -2319,22 +2411,23 @@
       <c r="G26" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="J26" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="L26" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M26" s="6"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <v>52</v>
       </c>
@@ -2350,18 +2443,19 @@
       <c r="G27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="52"/>
+      <c r="I27" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="35"/>
+      <c r="K27" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="35"/>
       <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -2378,20 +2472,21 @@
       <c r="G28" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="52"/>
+      <c r="I28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="L28" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -2408,20 +2503,21 @@
       <c r="G29" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="52"/>
+      <c r="I29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="K29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="L29" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>3</v>
       </c>
@@ -2438,20 +2534,21 @@
       <c r="G30" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="52"/>
+      <c r="I30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="J30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="K30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="L30" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -2468,20 +2565,21 @@
       <c r="G31" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="52"/>
+      <c r="I31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="J31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="L31" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>5</v>
       </c>
@@ -2498,20 +2596,21 @@
       <c r="G32" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="52"/>
+      <c r="I32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="J32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="L32" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
         <v>6</v>
       </c>
@@ -2528,20 +2627,21 @@
       <c r="G33" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="52"/>
+      <c r="I33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="J33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="L33" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>7</v>
       </c>
@@ -2558,20 +2658,21 @@
       <c r="G34" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="52"/>
+      <c r="I34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="K34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="L34" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
         <v>8</v>
       </c>
@@ -2588,20 +2689,21 @@
       <c r="G35" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="52"/>
+      <c r="I35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="J35" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="K35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="L35" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>9</v>
       </c>
@@ -2618,20 +2720,21 @@
       <c r="G36" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="52"/>
+      <c r="I36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="J36" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="K36" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="L36" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
         <v>10</v>
       </c>
@@ -2648,20 +2751,21 @@
       <c r="G37" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="52"/>
+      <c r="I37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="J37" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="K37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="L37" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>11</v>
       </c>
@@ -2678,20 +2782,21 @@
       <c r="G38" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="52"/>
+      <c r="I38" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="J38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="L38" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
         <v>12</v>
       </c>
@@ -2708,20 +2813,21 @@
       <c r="G39" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="52"/>
+      <c r="I39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="J39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="K39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="19" t="s">
+      <c r="L39" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>13</v>
       </c>
@@ -2738,20 +2844,21 @@
       <c r="G40" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="52"/>
+      <c r="I40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="J40" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="K40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="L40" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="22">
         <v>14</v>
       </c>
@@ -2768,20 +2875,21 @@
       <c r="G41" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="52"/>
+      <c r="I41" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="J41" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="L41" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="22">
         <v>15</v>
       </c>
@@ -2796,20 +2904,21 @@
       <c r="G42" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="52"/>
+      <c r="I42" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="J42" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="K42" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="25" t="s">
+      <c r="L42" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="22">
         <v>16</v>
       </c>
@@ -2824,20 +2933,21 @@
       <c r="G43" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="52"/>
+      <c r="I43" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="K43" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="L43" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="22">
         <v>17</v>
       </c>
@@ -2852,20 +2962,21 @@
       <c r="G44" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="52"/>
+      <c r="I44" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="J44" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="K44" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="L44" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="22">
         <v>18</v>
       </c>
@@ -2880,20 +2991,21 @@
       <c r="G45" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="52"/>
+      <c r="I45" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="J45" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="K45" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K45" s="25" t="s">
+      <c r="L45" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="22">
         <v>19</v>
       </c>
@@ -2907,23 +3019,26 @@
       <c r="F46" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="I46" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="25" t="s">
+      <c r="J46" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="K46" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K46" s="25" t="s">
+      <c r="L46" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="22">
         <v>20</v>
       </c>
@@ -2940,20 +3055,21 @@
       <c r="G47" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="52"/>
+      <c r="I47" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="J47" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="K47" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="L47" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="22">
         <v>21</v>
       </c>
@@ -2968,20 +3084,21 @@
       <c r="G48" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="52"/>
+      <c r="I48" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I48" s="28" t="s">
+      <c r="J48" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="L48" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="22">
         <v>22</v>
       </c>
@@ -2996,20 +3113,21 @@
       <c r="G49" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="52"/>
+      <c r="I49" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="25" t="s">
+      <c r="J49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K49" s="25" t="s">
+      <c r="L49" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="22">
         <v>23</v>
       </c>
@@ -3024,22 +3142,25 @@
         <v>130</v>
       </c>
       <c r="G50" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="I50" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="J50" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="K50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="L50" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="22">
         <v>24</v>
       </c>
@@ -3056,20 +3177,21 @@
       <c r="G51" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="52"/>
+      <c r="I51" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I51" s="25" t="s">
+      <c r="J51" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="K51" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="K51" s="25" t="s">
+      <c r="L51" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="22">
         <v>25</v>
       </c>
@@ -3084,20 +3206,21 @@
       <c r="G52" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="52"/>
+      <c r="I52" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="25" t="s">
+      <c r="J52" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="K52" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K52" s="25" t="s">
+      <c r="L52" s="25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="41">
         <v>26</v>
       </c>
@@ -3112,20 +3235,21 @@
       <c r="G53" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="H53" s="52"/>
+      <c r="I53" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="J53" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="J53" s="42" t="s">
+      <c r="K53" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="K53" s="46" t="s">
+      <c r="L53" s="46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="22">
         <v>27</v>
       </c>
@@ -3139,23 +3263,26 @@
       <c r="F54" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="I54" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="25" t="s">
+      <c r="J54" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="K54" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="K54" s="25" t="s">
+      <c r="L54" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="22">
         <v>28</v>
       </c>
@@ -3172,20 +3299,21 @@
       <c r="G55" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="52"/>
+      <c r="I55" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I55" s="25" t="s">
+      <c r="J55" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="K55" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K55" s="25" t="s">
+      <c r="L55" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="22">
         <v>29</v>
       </c>
@@ -3200,20 +3328,21 @@
       <c r="G56" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="23" t="s">
+      <c r="H56" s="52"/>
+      <c r="I56" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="J56" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="J56" s="23" t="s">
+      <c r="K56" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K56" s="25" t="s">
+      <c r="L56" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="22">
         <v>30</v>
       </c>
@@ -3228,20 +3357,21 @@
       <c r="G57" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="52"/>
+      <c r="I57" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="I57" s="25" t="s">
+      <c r="J57" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J57" s="23" t="s">
+      <c r="K57" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="K57" s="25" t="s">
+      <c r="L57" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="22">
         <v>31</v>
       </c>
@@ -3255,23 +3385,26 @@
       <c r="F58" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="I58" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I58" s="25" t="s">
+      <c r="J58" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="23" t="s">
+      <c r="K58" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="K58" s="28" t="s">
+      <c r="L58" s="28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="22">
         <v>32</v>
       </c>
@@ -3288,20 +3421,21 @@
       <c r="G59" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="52"/>
+      <c r="I59" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="J59" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J59" s="23" t="s">
+      <c r="K59" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K59" s="25" t="s">
+      <c r="L59" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="22">
         <v>33</v>
       </c>
@@ -3316,20 +3450,21 @@
       <c r="G60" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H60" s="52"/>
+      <c r="I60" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="J60" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="J60" s="23" t="s">
+      <c r="K60" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="L60" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="22">
         <v>34</v>
       </c>
@@ -3346,20 +3481,21 @@
       <c r="G61" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H61" s="23" t="s">
+      <c r="H61" s="52"/>
+      <c r="I61" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="25" t="s">
+      <c r="J61" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="J61" s="23" t="s">
+      <c r="K61" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K61" s="25" t="s">
+      <c r="L61" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="22">
         <v>35</v>
       </c>
@@ -3374,12 +3510,13 @@
         <v>130</v>
       </c>
       <c r="G62" s="40"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="23"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H62" s="52"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="22">
         <v>36</v>
       </c>
@@ -3396,20 +3533,21 @@
       <c r="G63" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H63" s="52"/>
+      <c r="I63" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I63" s="25" t="s">
+      <c r="J63" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J63" s="23" t="s">
+      <c r="K63" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K63" s="25" t="s">
+      <c r="L63" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="22">
         <v>37</v>
       </c>
@@ -3428,20 +3566,21 @@
       <c r="G64" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H64" s="52"/>
+      <c r="I64" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="27" t="s">
+      <c r="J64" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="23" t="s">
+      <c r="K64" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K64" s="25" t="s">
+      <c r="L64" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
         <v>38</v>
       </c>
@@ -3460,20 +3599,21 @@
       <c r="G65" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="40"/>
+      <c r="I65" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="J65" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="K65" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="K65" s="31" t="s">
+      <c r="L65" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>39</v>
       </c>
@@ -3492,20 +3632,21 @@
       <c r="G66" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H66" s="52"/>
+      <c r="I66" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I66" s="17" t="s">
+      <c r="J66" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="K66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="17" t="s">
+      <c r="L66" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
         <v>40</v>
       </c>
@@ -3522,20 +3663,21 @@
       <c r="G67" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="40"/>
+      <c r="I67" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="J67" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J67" s="13" t="s">
+      <c r="K67" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="K67" s="15" t="s">
+      <c r="L67" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>41</v>
       </c>
@@ -3552,20 +3694,21 @@
       <c r="G68" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="52"/>
+      <c r="I68" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="17" t="s">
+      <c r="J68" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="6" t="s">
+      <c r="K68" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="17" t="s">
+      <c r="L68" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
         <v>42</v>
       </c>
@@ -3582,20 +3725,21 @@
       <c r="G69" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="40"/>
+      <c r="I69" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="J69" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J69" s="13" t="s">
+      <c r="K69" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K69" s="15" t="s">
+      <c r="L69" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>43</v>
       </c>
@@ -3612,20 +3756,21 @@
       <c r="G70" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="52"/>
+      <c r="I70" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="J70" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J70" s="6" t="s">
+      <c r="K70" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="K70" s="32" t="s">
+      <c r="L70" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
         <v>44</v>
       </c>
@@ -3642,20 +3787,21 @@
       <c r="G71" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="40"/>
+      <c r="I71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="J71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="K71" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="L71" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>45</v>
       </c>
@@ -3672,20 +3818,21 @@
       <c r="G72" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="52"/>
+      <c r="I72" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="17" t="s">
+      <c r="J72" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="6" t="s">
+      <c r="K72" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K72" s="17" t="s">
+      <c r="L72" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
         <v>46</v>
       </c>
@@ -3702,20 +3849,21 @@
       <c r="G73" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="40"/>
+      <c r="I73" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="J73" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="K73" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="21" t="s">
+      <c r="L73" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>47</v>
       </c>
@@ -3732,20 +3880,21 @@
       <c r="G74" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="52"/>
+      <c r="I74" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I74" s="17" t="s">
+      <c r="J74" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="K74" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="17" t="s">
+      <c r="L74" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
         <v>48</v>
       </c>
@@ -3762,20 +3911,21 @@
       <c r="G75" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="40"/>
+      <c r="I75" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="J75" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="K75" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K75" s="15" t="s">
+      <c r="L75" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>50</v>
       </c>
@@ -3792,20 +3942,21 @@
       <c r="G76" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="52"/>
+      <c r="I76" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I76" s="20" t="s">
+      <c r="J76" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="K76" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K76" s="17" t="s">
+      <c r="L76" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
         <v>50</v>
       </c>
@@ -3822,20 +3973,21 @@
       <c r="G77" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="40"/>
+      <c r="I77" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I77" s="10" t="s">
+      <c r="J77" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J77" s="13" t="s">
+      <c r="K77" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K77" s="21" t="s">
+      <c r="L77" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="47">
         <v>51</v>
       </c>
@@ -3852,16 +4004,17 @@
       <c r="G78" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="H78" s="49" t="s">
+      <c r="H78" s="52"/>
+      <c r="I78" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="I78" s="51" t="s">
+      <c r="J78" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="J78" s="49" t="s">
+      <c r="K78" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="K78" s="51" t="s">
+      <c r="L78" s="51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3869,162 +4022,162 @@
   <customSheetViews>
     <customSheetView guid="{A3DE8802-0C4D-4111-B18C-B1D760A0D2A9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M53" xr:uid="{E0C627FA-D8F4-CE4B-9443-0ECABC02B17E}"/>
+      <autoFilter ref="A1:M53" xr:uid="{A7C47725-FF77-8B4E-9394-8E28AB4DEC95}"/>
     </customSheetView>
     <customSheetView guid="{4834604E-8AB4-4512-8966-A2E345F1CB23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M53" xr:uid="{88072B57-55C5-9441-8B3C-BA5841F3900C}"/>
+      <autoFilter ref="A1:M53" xr:uid="{F2B0ECDC-D6F7-5147-894E-2B77D68A20FE}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="I5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="I6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="I7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="I8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="I9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="I11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="I13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="I14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="K14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="I15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="K15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="I16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="K16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="I17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="K17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="I18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="K18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="I19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="K19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="I20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="K20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="I21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="K21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="I22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="K22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="I23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="K23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="I24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="K24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="I25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="K25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="I26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="K26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="I28" r:id="rId49" xr:uid="{89663324-174B-1242-9673-0058DB4C2A13}"/>
-    <hyperlink ref="K28" r:id="rId50" xr:uid="{7F9A7465-DCF2-3D4D-88CE-1FB953E0A52D}"/>
-    <hyperlink ref="I29" r:id="rId51" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
-    <hyperlink ref="K29" r:id="rId52" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
-    <hyperlink ref="I30" r:id="rId53" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
-    <hyperlink ref="K30" r:id="rId54" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
-    <hyperlink ref="I31" r:id="rId55" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
-    <hyperlink ref="K31" r:id="rId56" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
-    <hyperlink ref="I32" r:id="rId57" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
-    <hyperlink ref="K32" r:id="rId58" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
-    <hyperlink ref="I33" r:id="rId59" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
-    <hyperlink ref="K33" r:id="rId60" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
-    <hyperlink ref="I34" r:id="rId61" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
-    <hyperlink ref="K34" r:id="rId62" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
-    <hyperlink ref="I35" r:id="rId63" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
-    <hyperlink ref="K35" r:id="rId64" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
-    <hyperlink ref="I36" r:id="rId65" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
-    <hyperlink ref="K36" r:id="rId66" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
-    <hyperlink ref="I37" r:id="rId67" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
-    <hyperlink ref="K37" r:id="rId68" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
-    <hyperlink ref="I38" r:id="rId69" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
-    <hyperlink ref="K38" r:id="rId70" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
-    <hyperlink ref="I39" r:id="rId71" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
-    <hyperlink ref="K39" r:id="rId72" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
-    <hyperlink ref="I40" r:id="rId73" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
-    <hyperlink ref="K40" r:id="rId74" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
-    <hyperlink ref="I41" r:id="rId75" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
-    <hyperlink ref="K41" r:id="rId76" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
-    <hyperlink ref="I42" r:id="rId77" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
-    <hyperlink ref="K42" r:id="rId78" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
-    <hyperlink ref="I43" r:id="rId79" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
-    <hyperlink ref="K43" r:id="rId80" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
-    <hyperlink ref="I44" r:id="rId81" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
-    <hyperlink ref="K44" r:id="rId82" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
-    <hyperlink ref="I45" r:id="rId83" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
-    <hyperlink ref="K45" r:id="rId84" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
-    <hyperlink ref="I46" r:id="rId85" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
-    <hyperlink ref="K46" r:id="rId86" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
-    <hyperlink ref="I47" r:id="rId87" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
-    <hyperlink ref="K47" r:id="rId88" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
-    <hyperlink ref="I48" r:id="rId89" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
-    <hyperlink ref="K48" r:id="rId90" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
-    <hyperlink ref="I49" r:id="rId91" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
-    <hyperlink ref="K49" r:id="rId92" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
-    <hyperlink ref="I50" r:id="rId93" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
-    <hyperlink ref="K50" r:id="rId94" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
-    <hyperlink ref="I51" r:id="rId95" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
-    <hyperlink ref="K51" r:id="rId96" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
-    <hyperlink ref="I52" r:id="rId97" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
-    <hyperlink ref="K52" r:id="rId98" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
-    <hyperlink ref="I53" r:id="rId99" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
-    <hyperlink ref="K53" r:id="rId100" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
-    <hyperlink ref="I54" r:id="rId101" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
-    <hyperlink ref="K54" r:id="rId102" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
-    <hyperlink ref="I55" r:id="rId103" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
-    <hyperlink ref="K55" r:id="rId104" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
-    <hyperlink ref="I56" r:id="rId105" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
-    <hyperlink ref="K56" r:id="rId106" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
-    <hyperlink ref="I57" r:id="rId107" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
-    <hyperlink ref="K57" r:id="rId108" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
-    <hyperlink ref="I58" r:id="rId109" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
-    <hyperlink ref="K58" r:id="rId110" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
-    <hyperlink ref="I59" r:id="rId111" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
-    <hyperlink ref="K59" r:id="rId112" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
-    <hyperlink ref="I60" r:id="rId113" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
-    <hyperlink ref="K60" r:id="rId114" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
-    <hyperlink ref="I61" r:id="rId115" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
-    <hyperlink ref="K61" r:id="rId116" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
-    <hyperlink ref="I63" r:id="rId117" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
-    <hyperlink ref="K63" r:id="rId118" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
-    <hyperlink ref="I64" r:id="rId119" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
-    <hyperlink ref="K64" r:id="rId120" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
-    <hyperlink ref="I65" r:id="rId121" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
-    <hyperlink ref="K65" r:id="rId122" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
-    <hyperlink ref="I66" r:id="rId123" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
-    <hyperlink ref="K66" r:id="rId124" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
-    <hyperlink ref="I67" r:id="rId125" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
-    <hyperlink ref="K67" r:id="rId126" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
-    <hyperlink ref="I68" r:id="rId127" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
-    <hyperlink ref="K68" r:id="rId128" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
-    <hyperlink ref="I69" r:id="rId129" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
-    <hyperlink ref="K69" r:id="rId130" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
-    <hyperlink ref="I70" r:id="rId131" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
-    <hyperlink ref="K70" r:id="rId132" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
-    <hyperlink ref="I71" r:id="rId133" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
-    <hyperlink ref="K71" r:id="rId134" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
-    <hyperlink ref="I72" r:id="rId135" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
-    <hyperlink ref="K72" r:id="rId136" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
-    <hyperlink ref="I73" r:id="rId137" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
-    <hyperlink ref="K73" r:id="rId138" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
-    <hyperlink ref="I74" r:id="rId139" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
-    <hyperlink ref="K74" r:id="rId140" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
-    <hyperlink ref="I75" r:id="rId141" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
-    <hyperlink ref="K75" r:id="rId142" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
-    <hyperlink ref="I76" r:id="rId143" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
-    <hyperlink ref="K76" r:id="rId144" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
-    <hyperlink ref="I77" r:id="rId145" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
-    <hyperlink ref="K77" r:id="rId146" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
-    <hyperlink ref="I78" r:id="rId147" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
-    <hyperlink ref="K78" r:id="rId148" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="L8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="L9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="L12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="L14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="L15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="L16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J17" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="L17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="L18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J19" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="L19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="L20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J21" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="L21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J22" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="L22" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J23" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="L23" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J24" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="L24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="L25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="L26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J28" r:id="rId49" xr:uid="{89663324-174B-1242-9673-0058DB4C2A13}"/>
+    <hyperlink ref="L28" r:id="rId50" xr:uid="{7F9A7465-DCF2-3D4D-88CE-1FB953E0A52D}"/>
+    <hyperlink ref="J29" r:id="rId51" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
+    <hyperlink ref="L29" r:id="rId52" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
+    <hyperlink ref="J30" r:id="rId53" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
+    <hyperlink ref="L30" r:id="rId54" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
+    <hyperlink ref="J31" r:id="rId55" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
+    <hyperlink ref="L31" r:id="rId56" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
+    <hyperlink ref="J32" r:id="rId57" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
+    <hyperlink ref="L32" r:id="rId58" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
+    <hyperlink ref="J33" r:id="rId59" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
+    <hyperlink ref="L33" r:id="rId60" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
+    <hyperlink ref="J34" r:id="rId61" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
+    <hyperlink ref="L34" r:id="rId62" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
+    <hyperlink ref="J35" r:id="rId63" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
+    <hyperlink ref="L35" r:id="rId64" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
+    <hyperlink ref="J36" r:id="rId65" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
+    <hyperlink ref="L36" r:id="rId66" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
+    <hyperlink ref="J37" r:id="rId67" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
+    <hyperlink ref="L37" r:id="rId68" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
+    <hyperlink ref="J38" r:id="rId69" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
+    <hyperlink ref="L38" r:id="rId70" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
+    <hyperlink ref="J39" r:id="rId71" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
+    <hyperlink ref="L39" r:id="rId72" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
+    <hyperlink ref="J40" r:id="rId73" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
+    <hyperlink ref="L40" r:id="rId74" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
+    <hyperlink ref="J41" r:id="rId75" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
+    <hyperlink ref="L41" r:id="rId76" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
+    <hyperlink ref="J42" r:id="rId77" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
+    <hyperlink ref="L42" r:id="rId78" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
+    <hyperlink ref="J43" r:id="rId79" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
+    <hyperlink ref="L43" r:id="rId80" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
+    <hyperlink ref="J44" r:id="rId81" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
+    <hyperlink ref="L44" r:id="rId82" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
+    <hyperlink ref="J45" r:id="rId83" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
+    <hyperlink ref="L45" r:id="rId84" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
+    <hyperlink ref="J46" r:id="rId85" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
+    <hyperlink ref="L46" r:id="rId86" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
+    <hyperlink ref="J47" r:id="rId87" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
+    <hyperlink ref="L47" r:id="rId88" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
+    <hyperlink ref="J48" r:id="rId89" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
+    <hyperlink ref="L48" r:id="rId90" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
+    <hyperlink ref="J49" r:id="rId91" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
+    <hyperlink ref="L49" r:id="rId92" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
+    <hyperlink ref="J50" r:id="rId93" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
+    <hyperlink ref="L50" r:id="rId94" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
+    <hyperlink ref="J51" r:id="rId95" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
+    <hyperlink ref="L51" r:id="rId96" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
+    <hyperlink ref="J52" r:id="rId97" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
+    <hyperlink ref="L52" r:id="rId98" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
+    <hyperlink ref="J53" r:id="rId99" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
+    <hyperlink ref="L53" r:id="rId100" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
+    <hyperlink ref="J54" r:id="rId101" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
+    <hyperlink ref="L54" r:id="rId102" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
+    <hyperlink ref="J55" r:id="rId103" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
+    <hyperlink ref="L55" r:id="rId104" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
+    <hyperlink ref="J56" r:id="rId105" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
+    <hyperlink ref="L56" r:id="rId106" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
+    <hyperlink ref="J57" r:id="rId107" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
+    <hyperlink ref="L57" r:id="rId108" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
+    <hyperlink ref="J58" r:id="rId109" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
+    <hyperlink ref="L58" r:id="rId110" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
+    <hyperlink ref="J59" r:id="rId111" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
+    <hyperlink ref="L59" r:id="rId112" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
+    <hyperlink ref="J60" r:id="rId113" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
+    <hyperlink ref="L60" r:id="rId114" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
+    <hyperlink ref="J61" r:id="rId115" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
+    <hyperlink ref="L61" r:id="rId116" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
+    <hyperlink ref="J63" r:id="rId117" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
+    <hyperlink ref="L63" r:id="rId118" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
+    <hyperlink ref="J64" r:id="rId119" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
+    <hyperlink ref="L64" r:id="rId120" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
+    <hyperlink ref="J65" r:id="rId121" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
+    <hyperlink ref="L65" r:id="rId122" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
+    <hyperlink ref="J66" r:id="rId123" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
+    <hyperlink ref="L66" r:id="rId124" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
+    <hyperlink ref="J67" r:id="rId125" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
+    <hyperlink ref="L67" r:id="rId126" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
+    <hyperlink ref="J68" r:id="rId127" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
+    <hyperlink ref="L68" r:id="rId128" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
+    <hyperlink ref="J69" r:id="rId129" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
+    <hyperlink ref="L69" r:id="rId130" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
+    <hyperlink ref="J70" r:id="rId131" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
+    <hyperlink ref="L70" r:id="rId132" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
+    <hyperlink ref="J71" r:id="rId133" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
+    <hyperlink ref="L71" r:id="rId134" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
+    <hyperlink ref="J72" r:id="rId135" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
+    <hyperlink ref="L72" r:id="rId136" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
+    <hyperlink ref="J73" r:id="rId137" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
+    <hyperlink ref="L73" r:id="rId138" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
+    <hyperlink ref="J74" r:id="rId139" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
+    <hyperlink ref="L74" r:id="rId140" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
+    <hyperlink ref="J75" r:id="rId141" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
+    <hyperlink ref="L75" r:id="rId142" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
+    <hyperlink ref="J76" r:id="rId143" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
+    <hyperlink ref="L76" r:id="rId144" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
+    <hyperlink ref="J77" r:id="rId145" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
+    <hyperlink ref="L77" r:id="rId146" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
+    <hyperlink ref="J78" r:id="rId147" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
+    <hyperlink ref="L78" r:id="rId148" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId149"/>

--- a/RTR route schedule.xlsx
+++ b/RTR route schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulcox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5411ACA2-784B-6F4B-810D-DD4A97091109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF74DB-6F20-1149-B449-CB1BB47C131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="141">
   <si>
     <t>Week</t>
   </si>
@@ -242,10 +242,6 @@
     <t>https://www.strava.com/routes/3353363057471959850</t>
   </si>
   <si>
-    <t>Mental Health Awareness
-Wear it green day &amp; social</t>
-  </si>
-  <si>
     <t>Chapelfield, Ringley, Old Hall, Outwood</t>
   </si>
   <si>
@@ -475,6 +471,12 @@
   </si>
   <si>
     <t>Burrs County Park</t>
+  </si>
+  <si>
+    <t>Wear it green for mental health awareness week</t>
+  </si>
+  <si>
+    <t>Pride run – wear something colourful</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1553,16 +1555,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -1596,25 +1598,25 @@
         <v>57</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>131</v>
-      </c>
       <c r="I2" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="11"/>
@@ -1629,20 +1631,20 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>40</v>
@@ -1664,10 +1666,10 @@
       <c r="D4" s="24"/>
       <c r="E4" s="23"/>
       <c r="F4" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="23" t="s">
@@ -1696,23 +1698,23 @@
       <c r="D5" s="24"/>
       <c r="E5" s="23"/>
       <c r="F5" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="L5" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="16"/>
@@ -1730,25 +1732,25 @@
         <v>57</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="K6" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="11"/>
@@ -1763,13 +1765,13 @@
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="23" t="s">
@@ -1798,23 +1800,23 @@
       <c r="D8" s="24"/>
       <c r="E8" s="23"/>
       <c r="F8" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="K8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="11"/>
@@ -1829,26 +1831,26 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="26" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="L9" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="16"/>
@@ -1866,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="52"/>
@@ -1887,13 +1889,13 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="23" t="s">
@@ -1923,20 +1925,20 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>48</v>
@@ -1959,26 +1961,26 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="52"/>
       <c r="I13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="31" t="s">
         <v>110</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>111</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="16"/>
@@ -1995,20 +1997,20 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>16</v>
@@ -2032,23 +2034,23 @@
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
       <c r="F15" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="K15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="L15" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="16"/>
@@ -2066,10 +2068,10 @@
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="6" t="s">
@@ -2100,10 +2102,10 @@
       <c r="D17" s="14"/>
       <c r="E17" s="13"/>
       <c r="F17" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="13" t="s">
@@ -2134,23 +2136,23 @@
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="L18" s="32" t="s">
         <v>110</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="11"/>
@@ -2168,10 +2170,10 @@
       <c r="D19" s="14"/>
       <c r="E19" s="13"/>
       <c r="F19" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="13" t="s">
@@ -2202,10 +2204,10 @@
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="6" t="s">
@@ -2236,10 +2238,10 @@
       <c r="D21" s="14"/>
       <c r="E21" s="13"/>
       <c r="F21" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="13" t="s">
@@ -2270,17 +2272,17 @@
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -2304,23 +2306,23 @@
       <c r="D23" s="14"/>
       <c r="E23" s="13"/>
       <c r="F23" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="L23" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="M23" s="13"/>
       <c r="N23" s="16"/>
@@ -2338,23 +2340,23 @@
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="K24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="L24" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="11"/>
@@ -2372,10 +2374,10 @@
       <c r="D25" s="14"/>
       <c r="E25" s="13"/>
       <c r="F25" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="13" t="s">
@@ -2406,23 +2408,23 @@
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J26" s="20" t="s">
-        <v>124</v>
-      </c>
       <c r="K26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="11"/>
@@ -2441,15 +2443,15 @@
       <c r="E27" s="35"/>
       <c r="F27" s="38"/>
       <c r="G27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27" s="35"/>
       <c r="K27" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -2467,10 +2469,10 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H28" s="52"/>
       <c r="I28" s="8" t="s">
@@ -2498,10 +2500,10 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" s="52"/>
       <c r="I29" s="8" t="s">
@@ -2529,10 +2531,10 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="52"/>
       <c r="I30" s="8" t="s">
@@ -2560,10 +2562,10 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="8" t="s">
@@ -2591,10 +2593,10 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="52"/>
       <c r="I32" s="8" t="s">
@@ -2622,10 +2624,10 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H33" s="52"/>
       <c r="I33" s="8" t="s">
@@ -2653,10 +2655,10 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="52"/>
       <c r="I34" s="8" t="s">
@@ -2684,10 +2686,10 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H35" s="52"/>
       <c r="I35" s="8" t="s">
@@ -2715,10 +2717,10 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H36" s="52"/>
       <c r="I36" s="8" t="s">
@@ -2746,10 +2748,10 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H37" s="52"/>
       <c r="I37" s="8" t="s">
@@ -2777,10 +2779,10 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="52"/>
       <c r="I38" s="8" t="s">
@@ -2808,10 +2810,10 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H39" s="52"/>
       <c r="I39" s="8" t="s">
@@ -2839,10 +2841,10 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H40" s="52"/>
       <c r="I40" s="8" t="s">
@@ -2870,10 +2872,10 @@
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="52"/>
       <c r="I41" s="23" t="s">
@@ -2899,10 +2901,10 @@
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H42" s="52"/>
       <c r="I42" s="23" t="s">
@@ -2928,10 +2930,10 @@
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="23" t="s">
@@ -2957,10 +2959,10 @@
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="52"/>
       <c r="I44" s="23" t="s">
@@ -2986,10 +2988,10 @@
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="52"/>
       <c r="I45" s="23" t="s">
@@ -3017,13 +3019,13 @@
         <v>57</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>58</v>
@@ -3047,26 +3049,26 @@
         <v>46156</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="K47" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="L47" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="L47" s="25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -3079,23 +3081,23 @@
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="K48" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="L48" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="L48" s="29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
@@ -3108,23 +3110,23 @@
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H49" s="52"/>
       <c r="I49" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="K49" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="L49" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
@@ -3139,25 +3141,25 @@
         <v>57</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I50" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="K50" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="L50" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="L50" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
@@ -3169,26 +3171,26 @@
         <v>46184</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H51" s="52"/>
       <c r="I51" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="K51" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="L51" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="L51" s="25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
@@ -3201,23 +3203,23 @@
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H52" s="52"/>
       <c r="I52" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="K52" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="L52" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="L52" s="25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
@@ -3230,23 +3232,23 @@
       </c>
       <c r="E53" s="42"/>
       <c r="F53" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H53" s="52"/>
       <c r="I53" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="K53" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="K53" s="42" t="s">
+      <c r="L53" s="46" t="s">
         <v>90</v>
-      </c>
-      <c r="L53" s="46" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
@@ -3261,25 +3263,25 @@
         <v>57</v>
       </c>
       <c r="F54" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G54" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="I54" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="25" t="s">
+      <c r="K54" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="K54" s="23" t="s">
+      <c r="L54" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="L54" s="25" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
@@ -3291,20 +3293,20 @@
         <v>46212</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H55" s="52"/>
       <c r="I55" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J55" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>97</v>
       </c>
       <c r="K55" s="23" t="s">
         <v>40</v>
@@ -3323,10 +3325,10 @@
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H56" s="52"/>
       <c r="I56" s="23" t="s">
@@ -3352,23 +3354,23 @@
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H57" s="52"/>
       <c r="I57" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="K57" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="L57" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="L57" s="25" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
@@ -3383,25 +3385,25 @@
         <v>57</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I58" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="J58" s="25" t="s">
+      <c r="K58" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L58" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="L58" s="28" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
@@ -3413,13 +3415,13 @@
         <v>46240</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F59" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H59" s="52"/>
       <c r="I59" s="23" t="s">
@@ -3445,23 +3447,23 @@
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H60" s="52"/>
       <c r="I60" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J60" s="27" t="s">
+      <c r="K60" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="L60" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="L60" s="29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
@@ -3473,26 +3475,26 @@
         <v>46254</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H61" s="52"/>
       <c r="I61" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J61" s="25" t="s">
+      <c r="K61" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="L61" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="L61" s="25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
@@ -3507,7 +3509,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="52"/>
@@ -3525,13 +3527,13 @@
         <v>46268</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H63" s="52"/>
       <c r="I63" s="23" t="s">
@@ -3558,20 +3560,20 @@
         <v>46275</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H64" s="52"/>
       <c r="I64" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="K64" s="23" t="s">
         <v>48</v>
@@ -3591,26 +3593,26 @@
         <v>46282</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J65" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="K65" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K65" s="13" t="s">
+      <c r="L65" s="31" t="s">
         <v>110</v>
-      </c>
-      <c r="L65" s="31" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
@@ -3624,20 +3626,20 @@
         <v>46289</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H66" s="52"/>
       <c r="I66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J66" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>16</v>
@@ -3658,23 +3660,23 @@
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J67" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="J67" s="21" t="s">
+      <c r="K67" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K67" s="13" t="s">
+      <c r="L67" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
@@ -3689,10 +3691,10 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H68" s="52"/>
       <c r="I68" s="6" t="s">
@@ -3720,10 +3722,10 @@
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H69" s="40"/>
       <c r="I69" s="13" t="s">
@@ -3751,23 +3753,23 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H70" s="52"/>
       <c r="I70" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J70" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="K70" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="L70" s="32" t="s">
         <v>110</v>
-      </c>
-      <c r="L70" s="32" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
@@ -3782,10 +3784,10 @@
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="13" t="s">
@@ -3813,10 +3815,10 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G72" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H72" s="52"/>
       <c r="I72" s="6" t="s">
@@ -3844,10 +3846,10 @@
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G73" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="13" t="s">
@@ -3875,17 +3877,17 @@
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G74" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H74" s="52"/>
       <c r="I74" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="J74" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="K74" s="6" t="s">
         <v>20</v>
@@ -3906,23 +3908,23 @@
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G75" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J75" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="J75" s="15" t="s">
+      <c r="K75" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="K75" s="13" t="s">
+      <c r="L75" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
@@ -3937,23 +3939,23 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J76" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J76" s="20" t="s">
+      <c r="K76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="L76" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="L76" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
@@ -3968,10 +3970,10 @@
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G77" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="13" t="s">
@@ -3999,23 +4001,23 @@
       </c>
       <c r="E78" s="49"/>
       <c r="F78" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G78" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="J78" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="J78" s="51" t="s">
-        <v>124</v>
-      </c>
       <c r="K78" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="L78" s="51" t="s">
         <v>123</v>
-      </c>
-      <c r="L78" s="51" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/RTR route schedule.xlsx
+++ b/RTR route schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulcox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF74DB-6F20-1149-B449-CB1BB47C131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71932BE8-50E3-4E4D-8CF5-EBFEC68DE9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="141">
   <si>
     <t>Week</t>
   </si>
@@ -1520,8 +1520,8 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2468,25 +2468,19 @@
         <v>46023</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>128</v>
-      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="40" t="s">
         <v>126</v>
       </c>
       <c r="H28" s="52"/>
-      <c r="I28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="I28" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="9"/>
       <c r="K28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
@@ -4080,111 +4074,109 @@
     <hyperlink ref="L25" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
     <hyperlink ref="J26" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
     <hyperlink ref="L26" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="J28" r:id="rId49" xr:uid="{89663324-174B-1242-9673-0058DB4C2A13}"/>
-    <hyperlink ref="L28" r:id="rId50" xr:uid="{7F9A7465-DCF2-3D4D-88CE-1FB953E0A52D}"/>
-    <hyperlink ref="J29" r:id="rId51" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
-    <hyperlink ref="L29" r:id="rId52" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
-    <hyperlink ref="J30" r:id="rId53" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
-    <hyperlink ref="L30" r:id="rId54" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
-    <hyperlink ref="J31" r:id="rId55" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
-    <hyperlink ref="L31" r:id="rId56" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
-    <hyperlink ref="J32" r:id="rId57" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
-    <hyperlink ref="L32" r:id="rId58" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
-    <hyperlink ref="J33" r:id="rId59" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
-    <hyperlink ref="L33" r:id="rId60" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
-    <hyperlink ref="J34" r:id="rId61" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
-    <hyperlink ref="L34" r:id="rId62" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
-    <hyperlink ref="J35" r:id="rId63" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
-    <hyperlink ref="L35" r:id="rId64" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
-    <hyperlink ref="J36" r:id="rId65" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
-    <hyperlink ref="L36" r:id="rId66" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
-    <hyperlink ref="J37" r:id="rId67" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
-    <hyperlink ref="L37" r:id="rId68" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
-    <hyperlink ref="J38" r:id="rId69" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
-    <hyperlink ref="L38" r:id="rId70" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
-    <hyperlink ref="J39" r:id="rId71" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
-    <hyperlink ref="L39" r:id="rId72" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
-    <hyperlink ref="J40" r:id="rId73" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
-    <hyperlink ref="L40" r:id="rId74" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
-    <hyperlink ref="J41" r:id="rId75" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
-    <hyperlink ref="L41" r:id="rId76" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
-    <hyperlink ref="J42" r:id="rId77" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
-    <hyperlink ref="L42" r:id="rId78" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
-    <hyperlink ref="J43" r:id="rId79" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
-    <hyperlink ref="L43" r:id="rId80" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
-    <hyperlink ref="J44" r:id="rId81" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
-    <hyperlink ref="L44" r:id="rId82" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
-    <hyperlink ref="J45" r:id="rId83" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
-    <hyperlink ref="L45" r:id="rId84" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
-    <hyperlink ref="J46" r:id="rId85" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
-    <hyperlink ref="L46" r:id="rId86" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
-    <hyperlink ref="J47" r:id="rId87" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
-    <hyperlink ref="L47" r:id="rId88" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
-    <hyperlink ref="J48" r:id="rId89" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
-    <hyperlink ref="L48" r:id="rId90" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
-    <hyperlink ref="J49" r:id="rId91" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
-    <hyperlink ref="L49" r:id="rId92" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
-    <hyperlink ref="J50" r:id="rId93" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
-    <hyperlink ref="L50" r:id="rId94" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
-    <hyperlink ref="J51" r:id="rId95" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
-    <hyperlink ref="L51" r:id="rId96" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
-    <hyperlink ref="J52" r:id="rId97" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
-    <hyperlink ref="L52" r:id="rId98" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
-    <hyperlink ref="J53" r:id="rId99" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
-    <hyperlink ref="L53" r:id="rId100" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
-    <hyperlink ref="J54" r:id="rId101" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
-    <hyperlink ref="L54" r:id="rId102" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
-    <hyperlink ref="J55" r:id="rId103" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
-    <hyperlink ref="L55" r:id="rId104" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
-    <hyperlink ref="J56" r:id="rId105" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
-    <hyperlink ref="L56" r:id="rId106" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
-    <hyperlink ref="J57" r:id="rId107" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
-    <hyperlink ref="L57" r:id="rId108" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
-    <hyperlink ref="J58" r:id="rId109" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
-    <hyperlink ref="L58" r:id="rId110" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
-    <hyperlink ref="J59" r:id="rId111" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
-    <hyperlink ref="L59" r:id="rId112" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
-    <hyperlink ref="J60" r:id="rId113" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
-    <hyperlink ref="L60" r:id="rId114" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
-    <hyperlink ref="J61" r:id="rId115" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
-    <hyperlink ref="L61" r:id="rId116" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
-    <hyperlink ref="J63" r:id="rId117" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
-    <hyperlink ref="L63" r:id="rId118" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
-    <hyperlink ref="J64" r:id="rId119" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
-    <hyperlink ref="L64" r:id="rId120" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
-    <hyperlink ref="J65" r:id="rId121" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
-    <hyperlink ref="L65" r:id="rId122" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
-    <hyperlink ref="J66" r:id="rId123" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
-    <hyperlink ref="L66" r:id="rId124" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
-    <hyperlink ref="J67" r:id="rId125" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
-    <hyperlink ref="L67" r:id="rId126" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
-    <hyperlink ref="J68" r:id="rId127" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
-    <hyperlink ref="L68" r:id="rId128" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
-    <hyperlink ref="J69" r:id="rId129" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
-    <hyperlink ref="L69" r:id="rId130" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
-    <hyperlink ref="J70" r:id="rId131" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
-    <hyperlink ref="L70" r:id="rId132" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
-    <hyperlink ref="J71" r:id="rId133" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
-    <hyperlink ref="L71" r:id="rId134" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
-    <hyperlink ref="J72" r:id="rId135" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
-    <hyperlink ref="L72" r:id="rId136" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
-    <hyperlink ref="J73" r:id="rId137" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
-    <hyperlink ref="L73" r:id="rId138" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
-    <hyperlink ref="J74" r:id="rId139" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
-    <hyperlink ref="L74" r:id="rId140" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
-    <hyperlink ref="J75" r:id="rId141" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
-    <hyperlink ref="L75" r:id="rId142" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
-    <hyperlink ref="J76" r:id="rId143" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
-    <hyperlink ref="L76" r:id="rId144" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
-    <hyperlink ref="J77" r:id="rId145" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
-    <hyperlink ref="L77" r:id="rId146" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
-    <hyperlink ref="J78" r:id="rId147" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
-    <hyperlink ref="L78" r:id="rId148" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
+    <hyperlink ref="J29" r:id="rId49" xr:uid="{E5F8D20D-EB0E-A040-9301-451EEBA6A55E}"/>
+    <hyperlink ref="L29" r:id="rId50" xr:uid="{B5D977D1-3241-184E-B459-757E17DC4DB1}"/>
+    <hyperlink ref="J30" r:id="rId51" xr:uid="{E23633FF-65E8-B749-BFA7-DCF84E078CE4}"/>
+    <hyperlink ref="L30" r:id="rId52" xr:uid="{A0F3AABA-BC37-B647-B440-F012602ED2DB}"/>
+    <hyperlink ref="J31" r:id="rId53" xr:uid="{1A5CB249-F714-9748-B92D-A05616A438E1}"/>
+    <hyperlink ref="L31" r:id="rId54" xr:uid="{42C9C207-F4ED-0245-91B1-C25CC7C44152}"/>
+    <hyperlink ref="J32" r:id="rId55" xr:uid="{C82D7159-9D3E-D444-B138-ECE63AE99721}"/>
+    <hyperlink ref="L32" r:id="rId56" xr:uid="{08775993-5ADD-1645-9A66-F496CA6B7A28}"/>
+    <hyperlink ref="J33" r:id="rId57" xr:uid="{593F3A8A-0AEB-504A-A4BB-665924FE18D8}"/>
+    <hyperlink ref="L33" r:id="rId58" xr:uid="{E5D6F428-A659-E048-9FDC-9F78A3B7B48D}"/>
+    <hyperlink ref="J34" r:id="rId59" xr:uid="{C76BE1CE-C653-7E4A-A3CA-DB0ED1C151B1}"/>
+    <hyperlink ref="L34" r:id="rId60" xr:uid="{27792CF5-37DE-1E4A-A05C-B14392618A69}"/>
+    <hyperlink ref="J35" r:id="rId61" xr:uid="{7A6086A5-7558-9941-A583-F0EB8294DBB1}"/>
+    <hyperlink ref="L35" r:id="rId62" xr:uid="{A0988048-7DFF-E945-BE05-E9106BF95B92}"/>
+    <hyperlink ref="J36" r:id="rId63" xr:uid="{8108EE16-B31E-F444-81D9-2B4A79E7175C}"/>
+    <hyperlink ref="L36" r:id="rId64" xr:uid="{B87AA8B1-8931-EA41-9937-140A18931AB5}"/>
+    <hyperlink ref="J37" r:id="rId65" xr:uid="{5BC82D23-1F71-AF45-89FB-D1ACFF4FC8B6}"/>
+    <hyperlink ref="L37" r:id="rId66" xr:uid="{8FDF43A8-0651-6041-B175-DDC630A9B906}"/>
+    <hyperlink ref="J38" r:id="rId67" xr:uid="{2B96EF4B-64DE-D848-B00A-EF825FFECDF2}"/>
+    <hyperlink ref="L38" r:id="rId68" xr:uid="{97696A61-8BC9-4D46-B269-73D40BAF3D35}"/>
+    <hyperlink ref="J39" r:id="rId69" xr:uid="{0F0327CE-3880-8545-A808-A2191AE5AF44}"/>
+    <hyperlink ref="L39" r:id="rId70" xr:uid="{977369CE-AC6A-BB4B-8022-8822B04F1635}"/>
+    <hyperlink ref="J40" r:id="rId71" xr:uid="{3C9B57FA-0D44-4D42-8949-A33F15925537}"/>
+    <hyperlink ref="L40" r:id="rId72" xr:uid="{20DC3E63-6890-7D40-9CFA-A76A52930112}"/>
+    <hyperlink ref="J41" r:id="rId73" xr:uid="{66DB3FE9-0E87-E642-8AA3-EC77FB29B727}"/>
+    <hyperlink ref="L41" r:id="rId74" xr:uid="{4435D93C-3FEE-754A-B15C-41E085563B6A}"/>
+    <hyperlink ref="J42" r:id="rId75" xr:uid="{1A0AE8B3-0C23-2D41-A8B2-5828A5F81BCF}"/>
+    <hyperlink ref="L42" r:id="rId76" xr:uid="{8360D496-8536-DE41-BF2A-7C7B6AC81189}"/>
+    <hyperlink ref="J43" r:id="rId77" xr:uid="{C05819D8-DEDF-A442-A7ED-C6322904231B}"/>
+    <hyperlink ref="L43" r:id="rId78" xr:uid="{E611B9D5-45EB-1A4A-AA78-F5794301BA8D}"/>
+    <hyperlink ref="J44" r:id="rId79" xr:uid="{F65F4782-946F-DB43-9E4A-47E5711B1BA3}"/>
+    <hyperlink ref="L44" r:id="rId80" xr:uid="{A1DBDF9A-9D85-2345-84EB-3E8FCE4EF05A}"/>
+    <hyperlink ref="J45" r:id="rId81" xr:uid="{9A9F2E1F-BC81-0E43-B4C3-485D2DDA9D4C}"/>
+    <hyperlink ref="L45" r:id="rId82" xr:uid="{6AB697FF-5F94-FE43-91B2-5A78D0102118}"/>
+    <hyperlink ref="J46" r:id="rId83" xr:uid="{8BDE2EF9-F386-7341-A357-86E3E5FD2EF9}"/>
+    <hyperlink ref="L46" r:id="rId84" xr:uid="{2847073B-A85F-AC4C-B957-EE14D213F633}"/>
+    <hyperlink ref="J47" r:id="rId85" xr:uid="{ACA1B80E-F171-DB4F-9FD5-6CD10FEE6204}"/>
+    <hyperlink ref="L47" r:id="rId86" xr:uid="{1C5AF245-A7B3-A547-96AB-7597B6C71A29}"/>
+    <hyperlink ref="J48" r:id="rId87" xr:uid="{21BDFC1E-7455-AB46-8AB0-100DAEC4DEEB}"/>
+    <hyperlink ref="L48" r:id="rId88" xr:uid="{498C59F7-F663-D94F-A767-2F30D430C4B4}"/>
+    <hyperlink ref="J49" r:id="rId89" xr:uid="{891D1943-15AC-804C-9DC0-DD742F5AD778}"/>
+    <hyperlink ref="L49" r:id="rId90" xr:uid="{B9EFC8CF-2FB6-F147-ADD0-D5E55EF83614}"/>
+    <hyperlink ref="J50" r:id="rId91" xr:uid="{CC74AF0B-DAAF-7345-AFAD-A36B8A146F09}"/>
+    <hyperlink ref="L50" r:id="rId92" xr:uid="{1A4A083A-056D-AB49-ADAA-89BC4FB14A33}"/>
+    <hyperlink ref="J51" r:id="rId93" xr:uid="{81CC28CF-BF11-EF45-A576-DEC5928ED439}"/>
+    <hyperlink ref="L51" r:id="rId94" xr:uid="{3FEF807D-650D-C54D-8B30-6D81B5DB562F}"/>
+    <hyperlink ref="J52" r:id="rId95" xr:uid="{A2F54672-5F72-774D-81F8-449FF6A8BD37}"/>
+    <hyperlink ref="L52" r:id="rId96" xr:uid="{4126D3EF-16F5-F244-96F8-B648BCE09616}"/>
+    <hyperlink ref="J53" r:id="rId97" xr:uid="{B5422E3E-E0E6-2549-B756-D87D83319F94}"/>
+    <hyperlink ref="L53" r:id="rId98" xr:uid="{BF1D94C6-BB65-A140-A516-32273E240800}"/>
+    <hyperlink ref="J54" r:id="rId99" xr:uid="{F861F128-B7B1-704C-803F-9CDC962DA7E2}"/>
+    <hyperlink ref="L54" r:id="rId100" xr:uid="{0551055D-53FE-724E-9A5B-EAA86A8E75ED}"/>
+    <hyperlink ref="J55" r:id="rId101" xr:uid="{0B5BC359-2057-4140-A984-2ABCBB2209B5}"/>
+    <hyperlink ref="L55" r:id="rId102" xr:uid="{699BAD10-6320-3141-BBA3-AC301BF3CC42}"/>
+    <hyperlink ref="J56" r:id="rId103" xr:uid="{C007D042-C228-C844-9E15-7FCA65633AD2}"/>
+    <hyperlink ref="L56" r:id="rId104" xr:uid="{F86A9BF8-AA2A-814B-811A-5A497BE9D68C}"/>
+    <hyperlink ref="J57" r:id="rId105" xr:uid="{17AE26F7-689A-364D-AC18-E4AE5FD42827}"/>
+    <hyperlink ref="L57" r:id="rId106" xr:uid="{1E0BE176-F764-0A47-8E22-14B27E03377A}"/>
+    <hyperlink ref="J58" r:id="rId107" xr:uid="{9DE861AB-AC36-DB43-926A-09E1B13F0509}"/>
+    <hyperlink ref="L58" r:id="rId108" xr:uid="{E84CA9D9-329C-6843-BF6A-B11C004C1396}"/>
+    <hyperlink ref="J59" r:id="rId109" xr:uid="{CE75FD48-5CA0-554D-8313-CED229A2797E}"/>
+    <hyperlink ref="L59" r:id="rId110" xr:uid="{FE1C4075-9293-3B45-9937-7770FB8C037A}"/>
+    <hyperlink ref="J60" r:id="rId111" xr:uid="{7D2ACD91-7A1D-224A-B773-56DD3D424A08}"/>
+    <hyperlink ref="L60" r:id="rId112" xr:uid="{6A86550A-0C93-894D-BC8C-E09CBF4473B6}"/>
+    <hyperlink ref="J61" r:id="rId113" xr:uid="{B96D75A5-270B-AF41-8AE0-EFF77354DFBC}"/>
+    <hyperlink ref="L61" r:id="rId114" xr:uid="{F45EE6D4-7E88-9442-A7B0-111954861FAE}"/>
+    <hyperlink ref="J63" r:id="rId115" xr:uid="{4315CF92-7B0D-1548-AC62-ACCAD16451ED}"/>
+    <hyperlink ref="L63" r:id="rId116" xr:uid="{427A5138-59DA-184A-A927-DBC2446ECB2C}"/>
+    <hyperlink ref="J64" r:id="rId117" xr:uid="{36AA59B1-671A-7141-ACD8-7D07AD201879}"/>
+    <hyperlink ref="L64" r:id="rId118" xr:uid="{CEAB4FB2-0B55-204A-96FE-CC2D64B5546D}"/>
+    <hyperlink ref="J65" r:id="rId119" xr:uid="{D8D18BBD-2450-8947-955A-21B9E3CEB389}"/>
+    <hyperlink ref="L65" r:id="rId120" xr:uid="{89B324E2-3691-8C43-A13F-E657F7ED8000}"/>
+    <hyperlink ref="J66" r:id="rId121" xr:uid="{409476E8-37F1-674F-B673-33F28A6518AF}"/>
+    <hyperlink ref="L66" r:id="rId122" xr:uid="{929B3257-D98E-B441-A22E-D9316946385B}"/>
+    <hyperlink ref="J67" r:id="rId123" xr:uid="{CA5B99CE-68BB-9C40-A3AA-65D006C5A0DE}"/>
+    <hyperlink ref="L67" r:id="rId124" xr:uid="{5E914B80-265A-4544-B1F8-2958C7C42F43}"/>
+    <hyperlink ref="J68" r:id="rId125" xr:uid="{B1C61BB4-0731-8D48-9B81-F9BCF87A7A13}"/>
+    <hyperlink ref="L68" r:id="rId126" xr:uid="{C51D93C2-944F-4F49-9D78-007F5369FBC6}"/>
+    <hyperlink ref="J69" r:id="rId127" xr:uid="{01A75E5D-BEDF-DE4E-B525-768C8D1D7F06}"/>
+    <hyperlink ref="L69" r:id="rId128" xr:uid="{FAEF450E-8130-DB45-9CEA-8A4EC9557F3F}"/>
+    <hyperlink ref="J70" r:id="rId129" xr:uid="{173EB2E4-15EC-B64D-9DDF-80A31A215EB2}"/>
+    <hyperlink ref="L70" r:id="rId130" xr:uid="{A6EF3DC5-EC2C-BA42-B20B-AC5693758623}"/>
+    <hyperlink ref="J71" r:id="rId131" xr:uid="{5DF5AC3B-CA3C-3B4A-BECF-7FC512415DA9}"/>
+    <hyperlink ref="L71" r:id="rId132" xr:uid="{ACAC737E-FB43-B14E-8395-2794D48351D1}"/>
+    <hyperlink ref="J72" r:id="rId133" xr:uid="{A96F0D88-68FE-7347-94A3-68205B9CF8A9}"/>
+    <hyperlink ref="L72" r:id="rId134" xr:uid="{AA1C6192-83D0-E24B-9883-787D4295B76C}"/>
+    <hyperlink ref="J73" r:id="rId135" xr:uid="{F74BD406-EAE1-8142-94AE-6AB24E2A7245}"/>
+    <hyperlink ref="L73" r:id="rId136" xr:uid="{5697E259-A89B-C542-A824-A99246C9B929}"/>
+    <hyperlink ref="J74" r:id="rId137" xr:uid="{E5A9167D-CAB7-924B-80B5-D6898E235E6A}"/>
+    <hyperlink ref="L74" r:id="rId138" xr:uid="{42F6DFE7-5275-2342-8DD7-C988B2475537}"/>
+    <hyperlink ref="J75" r:id="rId139" xr:uid="{68C6E2E6-C69E-E44B-BE12-61D0FC535123}"/>
+    <hyperlink ref="L75" r:id="rId140" xr:uid="{E27D0348-6E80-B94B-AB27-BE0DC3711BC0}"/>
+    <hyperlink ref="J76" r:id="rId141" xr:uid="{E4CD5D14-A100-744B-B615-6F9664DE2203}"/>
+    <hyperlink ref="L76" r:id="rId142" xr:uid="{27C42ED5-1A03-524A-A5B7-E6A22590E0DD}"/>
+    <hyperlink ref="J77" r:id="rId143" xr:uid="{F1701E62-4FED-144F-B397-B2644E6BB96C}"/>
+    <hyperlink ref="L77" r:id="rId144" xr:uid="{C6B08C95-223D-FB40-9FD9-E59C5BABEFD8}"/>
+    <hyperlink ref="J78" r:id="rId145" xr:uid="{72323378-F927-D44B-A395-4D90713A2F1F}"/>
+    <hyperlink ref="L78" r:id="rId146" xr:uid="{8CD56519-58DC-CA4B-8731-989EA165718B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId149"/>
+  <legacyDrawing r:id="rId147"/>
   <tableParts count="1">
-    <tablePart r:id="rId150"/>
+    <tablePart r:id="rId148"/>
   </tableParts>
 </worksheet>
 </file>